--- a/UFTOneAutomationTests/BrowsersTesFireFox/Default.xlsx
+++ b/UFTOneAutomationTests/BrowsersTesFireFox/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="FireFox" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>

--- a/UFTOneAutomationTests/BrowsersTesFireFox/Default.xlsx
+++ b/UFTOneAutomationTests/BrowsersTesFireFox/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="FireFox" sheetId="2" r:id="rId2"/>
+    <sheet name="FireFox_rename" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>

--- a/UFTOneAutomationTests/BrowsersTesFireFox/Default.xlsx
+++ b/UFTOneAutomationTests/BrowsersTesFireFox/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="FireFox_rename" sheetId="2" r:id="rId2"/>
+    <sheet name="FireFox_rename_second_test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>

--- a/UFTOneAutomationTests/BrowsersTesFireFox/Default.xlsx
+++ b/UFTOneAutomationTests/BrowsersTesFireFox/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="FireFox_rename_second_test" sheetId="2" r:id="rId2"/>
+    <sheet name="FireFox" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
